--- a/databases/Gaylor/week-6 (File Organisations 1)/remainder.xlsx
+++ b/databases/Gaylor/week-6 (File Organisations 1)/remainder.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarkBaber\Documents\GitHub\uniWork\databases\Gaylor\week-6 (File Organisations 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C89712-6F35-459D-B20E-56C0FFE3F0FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1605D8CA-699F-4954-A44E-1CC31C36326E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1656" windowWidth="17280" windowHeight="8964" xr2:uid="{63FA4009-30A9-4819-A685-54840BBD1287}"/>
+    <workbookView xWindow="-7440" yWindow="2460" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{63FA4009-30A9-4819-A685-54840BBD1287}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Hash Keys</t>
   </si>
@@ -40,19 +41,76 @@
   </si>
   <si>
     <t>Test Hash</t>
+  </si>
+  <si>
+    <t>Divide</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>67*</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>Overflow</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Pointer</t>
+  </si>
+  <si>
+    <t>45*</t>
+  </si>
+  <si>
+    <t>88*</t>
+  </si>
+  <si>
+    <t>27*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>77*</t>
+  </si>
+  <si>
+    <t>93*</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,13 +129,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -394,33 +476,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C74527-E526-4BE3-94AA-1755231C2D96}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>11</v>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -434,8 +525,18 @@
         <f>MOD(B2,C2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <f>MOD(F2,G2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -449,8 +550,18 @@
         <f t="shared" ref="D3:D20" si="0">MOD(B3,C3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <f>MOD(F3,G3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -464,8 +575,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <v>91</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <f>MOD(F4,G4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -479,8 +600,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <f>MOD(F5,G5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -494,8 +625,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <f>MOD(F6,G6)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -509,8 +650,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <f>MOD(F7,G7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -524,8 +675,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <f>MOD(F8,G8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -539,8 +700,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1">
+        <f>MOD(F9,G9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -555,112 +726,785 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>77</v>
+      </c>
+      <c r="I15" s="2">
+        <v>67</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>77</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="P15" s="2">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>34</v>
+      </c>
+      <c r="I16" s="2">
+        <v>45</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>34</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="P16" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="I17" s="2">
+        <v>27</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="2"/>
+      <c r="P17" s="2">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="I18" s="2">
+        <v>88</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="2"/>
+      <c r="P18" s="2">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="L19" s="2">
+        <v>4</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>79</v>
+      </c>
+      <c r="L20" s="2">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
+        <v>79</v>
+      </c>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="L21" s="2">
+        <v>6</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3">
+        <v>18</v>
+      </c>
+      <c r="L22" s="2">
+        <v>7</v>
+      </c>
+      <c r="M22" s="3">
+        <v>18</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="F23" s="2">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="L23" s="2">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="F24" s="2">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="L24" s="2">
+        <v>9</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <v>43</v>
+      </c>
+      <c r="L25" s="2">
+        <v>10</v>
+      </c>
+      <c r="M25" s="2">
+        <v>43</v>
+      </c>
+      <c r="N25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1F9E3F-C17A-4483-B6BA-A3F0AB004C54}">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <f>MOD(B2,C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>45</v>
       </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C3" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D10" si="0">MOD(B3,C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>63</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
+      <c r="B9">
         <v>27</v>
       </c>
-      <c r="C17" s="1">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C9" s="1">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>57</v>
-      </c>
-      <c r="C18" s="1">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>93</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2">
+        <v>45</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2">
+        <v>45</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2">
+        <v>67</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2">
+        <v>77</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2">
+        <v>77</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2">
+        <v>93</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2">
+        <v>93</v>
+      </c>
+      <c r="O16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="2">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>27</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="J19" s="2">
+        <v>6</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2">
         <v>7</v>
       </c>
+      <c r="C20" s="3">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="J20" s="2">
+        <v>7</v>
+      </c>
+      <c r="K20" s="3">
+        <v>29</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="J21" s="2">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="E22" s="2">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="J22" s="2">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>54</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2">
+        <v>54</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="J23" s="2">
+        <v>10</v>
+      </c>
+      <c r="K23" s="2">
+        <v>54</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
